--- a/results stats.xlsx
+++ b/results stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catim\Documents\GitHub\TangleSimulatorUpgraded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2B54DC-218B-426A-9A24-7700AF059B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1FED6-A8A7-4A27-BBC4-4378DE0A2723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C845BB0-9D06-40A4-B7A1-14FBDAB09D02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Chain length</t>
   </si>
@@ -55,18 +55,24 @@
   <si>
     <t>SC</t>
   </si>
-  <si>
-    <t>SC Slice</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,15 +104,118 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,19 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F13E6C-16B6-4FEE-8B00-C8D7F031EFAB}">
-  <dimension ref="B3:H12"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -447,11 +558,8 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>20</v>
       </c>
@@ -461,17 +569,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2.16543582763562E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>2.1133928129161102E-2</v>
       </c>
       <c r="G4" s="2">
         <v>1.10595013013975E-139</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
@@ -481,17 +589,17 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.12600897065914499</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>9.5238095238095205E-2</v>
       </c>
       <c r="G5" s="2">
         <v>7.7461602636794698E-134</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -501,17 +609,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.27841731993351398</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>9.5238095238095205E-2</v>
       </c>
       <c r="G6" s="2">
         <v>1.44198242552171E-113</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>20</v>
       </c>
@@ -521,8 +629,17 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
+        <v>3.7175065425558498E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.7319347319347299E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.19829000979256E-107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>10</v>
       </c>
@@ -532,8 +649,17 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="3">
+        <v>0.28663234392862502</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.19829000979256E-107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -543,8 +669,17 @@
       <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="3">
+        <v>0.53220090083581695</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.25932400932400901</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.7470967126518802E-105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>20</v>
       </c>
@@ -554,8 +689,15 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="3">
+        <v>0.47531483017534998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.4019277113959901E-2</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -565,8 +707,15 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="3">
+        <v>0.68223241312391503</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.1209012771740201E-2</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -576,8 +725,143 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12" s="3">
+        <v>0.74088293174271302</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.121224503012916</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.7085801948024105E-6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.8169056281937398E-3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.51789521082122E-86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.56763484237234E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.1937635741237299E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0372070409418099E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.1937635741237299E-3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.1500054116702297E-87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.13537225233838199</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.6105143123296001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.30236983317212301</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.13296966844746E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.4472305645170398E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.4022101283026794E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E4:F12">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:F15">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F15">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:F18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results stats.xlsx
+++ b/results stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catim\Documents\GitHub\TangleSimulatorUpgraded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1FED6-A8A7-4A27-BBC4-4378DE0A2723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA2303-F996-46D1-9117-6D16E0406E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C845BB0-9D06-40A4-B7A1-14FBDAB09D02}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6C845BB0-9D06-40A4-B7A1-14FBDAB09D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,107 +104,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,7 +439,7 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,30 +745,15 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
-        <v>5.4472305645170398E-3</v>
+      <c r="E18" s="5">
+        <v>0.33811660849550901</v>
       </c>
       <c r="F18" s="1">
         <v>6.4022101283026794E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:F12">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:F15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F15">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F18">
+  <conditionalFormatting sqref="E4:F17 F18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
